--- a/Ảo Hóa/KVM/KVM_checklist/ChecklistKVM.xlsx
+++ b/Ảo Hóa/KVM/KVM_checklist/ChecklistKVM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TuDV-ThucTap2025\THUCTAPNHANHOA2025-HATANG\Ảo Hóa\KVM\KVM_checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD594CE-D696-4079-B29E-B6814B482DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8779D7F7-7B7C-4F62-9BCB-593572AEAE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,22 +646,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="e">
-        <f>- KVM là gì và để làm gì?
-- KVM thuộc loại ảo hóa nào?
-- So sánh KVM với các loại hypervisor còn lại
-- các thành phần trong KVM
-- Cách hoạt động
-- Mối quan hệ của KVM với OS là như thế nào</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>

--- a/Ảo Hóa/KVM/KVM_checklist/ChecklistKVM.xlsx
+++ b/Ảo Hóa/KVM/KVM_checklist/ChecklistKVM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TuDV-ThucTap2025\THUCTAPNHANHOA2025-HATANG\Ảo Hóa\KVM\KVM_checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8779D7F7-7B7C-4F62-9BCB-593572AEAE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4A79EC-6ABE-409C-999B-8074672A984E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
